--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-452510.8309011201</v>
+        <v>-455555.900226568</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11509329.48187195</v>
+        <v>11486314.93504763</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673416</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13215405.88985977</v>
+        <v>13229368.50159258</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.73217250539946</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="T2" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>33.89412103271894</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="I3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="J4" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="F5" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G5" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.47579842630984</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>36.5318832538937</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E6" t="n">
-        <v>36.53188325389371</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="I6" t="n">
-        <v>41.47579842630984</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.47579842630984</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.47579842630984</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>41.47579842630984</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.47579842630984</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="K7" t="n">
-        <v>13.27319999058712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>23.25868326330659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="V7" t="n">
-        <v>41.47579842630984</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>79.51149230610422</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.7138800015061</v>
+        <v>12.02733775987845</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7138800015061</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="W8" t="n">
-        <v>263.7138800015061</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>48.53827491403801</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>79.84453991653724</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>72.90978035487156</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>48.20279434449679</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9198712729442</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>57.57659876880842</v>
+        <v>291.8926364241677</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9098525889412</v>
+        <v>202.7574211188755</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9739626107216</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>204.6776886579236</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9984769846649</v>
+        <v>134.8576191442399</v>
       </c>
       <c r="H12" t="n">
-        <v>89.58729303843606</v>
+        <v>88.22690284275316</v>
       </c>
       <c r="I12" t="n">
-        <v>18.78305806322699</v>
+        <v>13.93334732929839</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08130761530674135</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1250783137444</v>
+        <v>125.5087057076058</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7125711330516</v>
+        <v>190.1448151885318</v>
       </c>
       <c r="U12" t="n">
-        <v>225.78710312186</v>
+        <v>225.7778361586741</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>90.92731257399335</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>139.2926146140964</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0249764477711</v>
+        <v>165.9068859660804</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7476193560531</v>
+        <v>143.6976876188392</v>
       </c>
       <c r="I13" t="n">
-        <v>96.32740557676108</v>
+        <v>92.77610272737067</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5453951735252</v>
+        <v>219.0408267517558</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2053515350884</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337172</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001833</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>45.72156936731163</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>191.9074132759359</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>103.1983720868901</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>55.16198843063519</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440902</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.163157616538055</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2293,19 +2293,19 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>260.3004566280594</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>103.3412163885165</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440902</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2533,10 +2533,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>88.99308360679505</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2728,7 +2728,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>64.44601915223832</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>172.5112693098268</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>159.4359999926204</v>
       </c>
       <c r="H31" t="n">
-        <v>64.44601915223832</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C34" t="n">
-        <v>4.999661275902793</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>142.8417107796199</v>
@@ -3205,7 +3205,7 @@
         <v>136.8617379250047</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745976</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.5884997241343</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>213.8897425958125</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5931996814712</v>
+        <v>234.5226091635638</v>
       </c>
       <c r="V34" t="n">
         <v>248.5453914568787</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>397.6205417574782</v>
       </c>
       <c r="H35" t="n">
-        <v>258.4681693898738</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>72.38985634554017</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0953759295251</v>
+        <v>186.9743225821947</v>
       </c>
       <c r="U35" t="n">
-        <v>225.8139733729758</v>
+        <v>249.5083068714744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>374.0152044007742</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.7370575672668</v>
+        <v>167.6092459266578</v>
       </c>
       <c r="C37" t="n">
-        <v>142.1518984839573</v>
+        <v>155.0240868433484</v>
       </c>
       <c r="D37" t="n">
-        <v>123.5205504035418</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>121.3390400318986</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>120.3261254082607</v>
+        <v>96.91901268330298</v>
       </c>
       <c r="G37" t="n">
-        <v>140.4471302624964</v>
+        <v>153.3193186218875</v>
       </c>
       <c r="H37" t="n">
-        <v>115.3590671772834</v>
+        <v>128.2312555366744</v>
       </c>
       <c r="I37" t="n">
-        <v>56.7096541297385</v>
+        <v>69.58184248912957</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.08582897641303</v>
+        <v>54.9580173358041</v>
       </c>
       <c r="S37" t="n">
-        <v>156.2435657437884</v>
+        <v>169.1157541031795</v>
       </c>
       <c r="T37" t="n">
-        <v>192.3870718480913</v>
+        <v>205.2592602074824</v>
       </c>
       <c r="U37" t="n">
-        <v>261.0905289337499</v>
+        <v>273.962717293141</v>
       </c>
       <c r="V37" t="n">
-        <v>227.0427207091575</v>
+        <v>239.9149090685486</v>
       </c>
       <c r="W37" t="n">
-        <v>261.4280757219205</v>
+        <v>274.3002640813116</v>
       </c>
       <c r="X37" t="n">
-        <v>200.6147327743666</v>
+        <v>213.4869211337577</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.4897307374243</v>
+        <v>206.3619190968153</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>370.5111074082012</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>384.7483533980871</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>258.4681693898738</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.51090969287124</v>
+        <v>72.38985634554017</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>186.9743225821947</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>249.5083068714735</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>315.5295242148555</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.7370575672668</v>
+        <v>167.6092459266578</v>
       </c>
       <c r="C40" t="n">
-        <v>142.1518984839573</v>
+        <v>155.0240868433484</v>
       </c>
       <c r="D40" t="n">
-        <v>123.5205504035418</v>
+        <v>136.3927387629329</v>
       </c>
       <c r="E40" t="n">
-        <v>121.3390400318986</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>120.3261254082607</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>140.4471302624964</v>
+        <v>153.3193186218875</v>
       </c>
       <c r="H40" t="n">
-        <v>115.3590671772834</v>
+        <v>128.2312555366745</v>
       </c>
       <c r="I40" t="n">
-        <v>56.7096541297385</v>
+        <v>69.58184248912957</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.08582897641303</v>
+        <v>54.9580173358041</v>
       </c>
       <c r="S40" t="n">
-        <v>156.2435657437884</v>
+        <v>169.1157541031795</v>
       </c>
       <c r="T40" t="n">
-        <v>192.3870718480913</v>
+        <v>205.2592602074824</v>
       </c>
       <c r="U40" t="n">
-        <v>261.0905289337499</v>
+        <v>234.4889912135117</v>
       </c>
       <c r="V40" t="n">
-        <v>227.0427207091575</v>
+        <v>239.9149090685486</v>
       </c>
       <c r="W40" t="n">
-        <v>261.4280757219205</v>
+        <v>274.3002640813116</v>
       </c>
       <c r="X40" t="n">
-        <v>200.6147327743666</v>
+        <v>213.4869211337577</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.4897307374243</v>
+        <v>206.3619190968153</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.6321607555327</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>329.5881190060124</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>397.6205417574782</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>282.162502888371</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>72.38985634554017</v>
       </c>
       <c r="T41" t="n">
-        <v>174.1021342228036</v>
+        <v>186.9743225821947</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876463</v>
+        <v>238.6861617323669</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.7370575672668</v>
+        <v>167.6092459266578</v>
       </c>
       <c r="C43" t="n">
-        <v>142.1518984839573</v>
+        <v>155.0240868433484</v>
       </c>
       <c r="D43" t="n">
-        <v>123.5205504035418</v>
+        <v>33.30254140478178</v>
       </c>
       <c r="E43" t="n">
-        <v>121.3390400318979</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>120.3261254082607</v>
+        <v>133.1983137676518</v>
       </c>
       <c r="G43" t="n">
-        <v>140.4471302624964</v>
+        <v>153.3193186218875</v>
       </c>
       <c r="H43" t="n">
-        <v>115.3590671772834</v>
+        <v>128.2312555366745</v>
       </c>
       <c r="I43" t="n">
-        <v>56.7096541297385</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.08582897641303</v>
+        <v>54.9580173358041</v>
       </c>
       <c r="S43" t="n">
-        <v>156.2435657437884</v>
+        <v>169.1157541031795</v>
       </c>
       <c r="T43" t="n">
-        <v>192.3870718480913</v>
+        <v>205.2592602074824</v>
       </c>
       <c r="U43" t="n">
-        <v>261.0905289337499</v>
+        <v>273.962717293141</v>
       </c>
       <c r="V43" t="n">
-        <v>227.0427207091575</v>
+        <v>239.9149090685486</v>
       </c>
       <c r="W43" t="n">
-        <v>261.4280757219205</v>
+        <v>274.3002640813116</v>
       </c>
       <c r="X43" t="n">
-        <v>200.6147327743666</v>
+        <v>213.4869211337577</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.4897307374243</v>
+        <v>206.3619190968153</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>370.5111074082012</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045443</v>
+        <v>282.1625028883718</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>59.51766798614908</v>
+        <v>72.38985634554017</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0953759295261</v>
+        <v>186.9743225821947</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
-        <v>302.6573358554644</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>374.0152044007742</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.7370575672668</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>142.1518984839573</v>
+        <v>155.0240868433484</v>
       </c>
       <c r="D46" t="n">
-        <v>123.5205504035418</v>
+        <v>136.3927387629329</v>
       </c>
       <c r="E46" t="n">
-        <v>121.3390400318986</v>
+        <v>134.2112283912897</v>
       </c>
       <c r="F46" t="n">
-        <v>120.3261254082607</v>
+        <v>133.1983137676518</v>
       </c>
       <c r="G46" t="n">
-        <v>140.4471302624964</v>
+        <v>153.3193186218875</v>
       </c>
       <c r="H46" t="n">
-        <v>115.3590671772834</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>56.70965412973833</v>
+        <v>69.58184248912957</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.08582897641303</v>
+        <v>54.9580173358041</v>
       </c>
       <c r="S46" t="n">
-        <v>156.2435657437884</v>
+        <v>169.1157541031795</v>
       </c>
       <c r="T46" t="n">
-        <v>192.3870718480913</v>
+        <v>205.2592602074824</v>
       </c>
       <c r="U46" t="n">
-        <v>261.0905289337499</v>
+        <v>273.962717293141</v>
       </c>
       <c r="V46" t="n">
-        <v>227.0427207091575</v>
+        <v>239.9149090685486</v>
       </c>
       <c r="W46" t="n">
-        <v>261.4280757219205</v>
+        <v>263.2574973060731</v>
       </c>
       <c r="X46" t="n">
-        <v>200.6147327743666</v>
+        <v>213.4869211337577</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.4897307374243</v>
+        <v>206.3619190968153</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F2" t="n">
-        <v>18.39358462996717</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G2" t="n">
         <v>3.078485107422247</v>
@@ -4334,19 +4334,19 @@
         <v>3.078485107422247</v>
       </c>
       <c r="L2" t="n">
-        <v>39.63549575806142</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="M2" t="n">
-        <v>77.73174896241173</v>
+        <v>34.47469744057084</v>
       </c>
       <c r="N2" t="n">
-        <v>115.828002166762</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="O2" t="n">
-        <v>153.9242553711123</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P2" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9242553711123</v>
@@ -4355,25 +4355,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S2" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T2" t="n">
         <v>76.18473245640914</v>
       </c>
       <c r="U2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.31497099905754</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>80.81800802212544</v>
       </c>
       <c r="D3" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="E3" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="F3" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G3" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="H3" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I3" t="n">
         <v>3.078485107422247</v>
@@ -4410,22 +4410,22 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.078485107422247</v>
+        <v>39.63549575806142</v>
       </c>
       <c r="L3" t="n">
-        <v>3.078485107422247</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="M3" t="n">
-        <v>39.63549575806142</v>
+        <v>115.828002166762</v>
       </c>
       <c r="N3" t="n">
-        <v>39.63549575806142</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O3" t="n">
-        <v>77.73174896241173</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P3" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q3" t="n">
         <v>153.9242553711123</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="C4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="D4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="E4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="F4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="G4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="H4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="I4" t="n">
-        <v>57.03132802508901</v>
+        <v>18.1615665677374</v>
       </c>
       <c r="J4" t="n">
-        <v>18.16156656773741</v>
+        <v>18.1615665677374</v>
       </c>
       <c r="K4" t="n">
         <v>3.078485107422247</v>
@@ -4510,28 +4510,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R4" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="S4" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="T4" t="n">
         <v>115.0544939137607</v>
       </c>
-      <c r="S4" t="n">
-        <v>95.90108948244061</v>
-      </c>
-      <c r="T4" t="n">
-        <v>57.03132802508901</v>
-      </c>
       <c r="U4" t="n">
-        <v>57.03132802508901</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V4" t="n">
-        <v>57.03132802508901</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="X4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.03132802508901</v>
+        <v>57.031328025089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.10755564442772</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C5" t="n">
-        <v>87.10755564442772</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D5" t="n">
-        <v>87.10755564442772</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E5" t="n">
-        <v>87.10755564442772</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="F5" t="n">
-        <v>45.21280975926625</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G5" t="n">
-        <v>3.318063874104788</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H5" t="n">
-        <v>3.318063874104788</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I5" t="n">
-        <v>3.318063874104788</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J5" t="n">
-        <v>3.318063874104788</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>44.37910431615153</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>85.44014475819827</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="M5" t="n">
-        <v>85.44014475819827</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="N5" t="n">
-        <v>124.8421532631926</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="O5" t="n">
-        <v>165.9031937052394</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P5" t="n">
-        <v>165.9031937052394</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
-        <v>165.9031937052394</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R5" t="n">
-        <v>124.0084478200779</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S5" t="n">
-        <v>87.10755564442772</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T5" t="n">
-        <v>87.10755564442772</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U5" t="n">
-        <v>87.10755564442772</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V5" t="n">
-        <v>87.10755564442772</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W5" t="n">
-        <v>87.10755564442772</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="X5" t="n">
-        <v>87.10755564442772</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.10755564442772</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="C6" t="n">
-        <v>82.11370193491646</v>
+        <v>119.687769479477</v>
       </c>
       <c r="D6" t="n">
-        <v>82.11370193491646</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="E6" t="n">
-        <v>45.21280975926625</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="F6" t="n">
-        <v>45.21280975926625</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G6" t="n">
-        <v>45.21280975926625</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="H6" t="n">
-        <v>45.21280975926625</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
-        <v>3.318063874104788</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>11.21782373526409</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>52.27886417731084</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>93.33990461935758</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="M6" t="n">
-        <v>134.4009450614043</v>
+        <v>117.3672447204732</v>
       </c>
       <c r="N6" t="n">
-        <v>134.4009450614043</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="O6" t="n">
-        <v>134.4009450614043</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="P6" t="n">
-        <v>134.4009450614043</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.9031937052394</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>124.0084478200779</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="X6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Y6" t="n">
-        <v>82.11370193491646</v>
+        <v>153.9242553711123</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.5148283621925</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C7" t="n">
-        <v>58.62008247703102</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D7" t="n">
-        <v>58.62008247703102</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E7" t="n">
-        <v>58.62008247703102</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="F7" t="n">
-        <v>58.62008247703102</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="G7" t="n">
-        <v>58.62008247703102</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="H7" t="n">
-        <v>16.72533659186956</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="I7" t="n">
-        <v>16.72533659186956</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="J7" t="n">
-        <v>16.72533659186956</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="K7" t="n">
-        <v>3.318063874104788</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="L7" t="n">
-        <v>42.02922355378038</v>
+        <v>39.68786127616097</v>
       </c>
       <c r="M7" t="n">
-        <v>83.09026399582713</v>
+        <v>77.78411448051128</v>
       </c>
       <c r="N7" t="n">
-        <v>124.1513044378739</v>
+        <v>115.8803676848616</v>
       </c>
       <c r="O7" t="n">
-        <v>159.3259176925405</v>
+        <v>149.0567829434387</v>
       </c>
       <c r="P7" t="n">
-        <v>165.9031937052394</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.9031937052394</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R7" t="n">
-        <v>165.9031937052394</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S7" t="n">
-        <v>165.9031937052394</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T7" t="n">
-        <v>142.4095742473539</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U7" t="n">
-        <v>142.4095742473539</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>100.5148283621925</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>100.5148283621925</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>100.5148283621925</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.5148283621925</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>634.167062227511</v>
+        <v>290.217654156269</v>
       </c>
       <c r="C8" t="n">
-        <v>553.8524235344764</v>
+        <v>290.217654156269</v>
       </c>
       <c r="D8" t="n">
-        <v>553.8524235344764</v>
+        <v>290.217654156269</v>
       </c>
       <c r="E8" t="n">
-        <v>553.8524235344764</v>
+        <v>290.217654156269</v>
       </c>
       <c r="F8" t="n">
-        <v>287.4747669672984</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="G8" t="n">
-        <v>21.09711040012049</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H8" t="n">
-        <v>21.09711040012049</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>101.5286049718923</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>184.0917595464847</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515905</v>
+        <v>323.4204153877379</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030603</v>
+        <v>510.1198282131455</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991316</v>
+        <v>704.4540411051279</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358413</v>
+        <v>874.6230664220874</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>985.3573916716139</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S8" t="n">
-        <v>900.5447187946889</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T8" t="n">
-        <v>900.5447187946889</v>
+        <v>805.54164996092</v>
       </c>
       <c r="U8" t="n">
-        <v>900.5447187946889</v>
+        <v>805.54164996092</v>
       </c>
       <c r="V8" t="n">
-        <v>900.5447187946889</v>
+        <v>547.8796520585945</v>
       </c>
       <c r="W8" t="n">
-        <v>634.167062227511</v>
+        <v>290.217654156269</v>
       </c>
       <c r="X8" t="n">
-        <v>634.167062227511</v>
+        <v>290.217654156269</v>
       </c>
       <c r="Y8" t="n">
-        <v>634.167062227511</v>
+        <v>290.217654156269</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>787.653248772002</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="C9" t="n">
-        <v>613.200219490875</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="D9" t="n">
-        <v>464.2658098296238</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="E9" t="n">
-        <v>305.0283548241683</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="F9" t="n">
-        <v>158.4937968510533</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="G9" t="n">
-        <v>21.09711040012049</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J9" t="n">
-        <v>117.4455628004801</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K9" t="n">
-        <v>192.1295835699343</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L9" t="n">
-        <v>338.874007230231</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4746963267547</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N9" t="n">
-        <v>739.5286634293598</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560896</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>997.604570491232</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.519636212815</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S9" t="n">
-        <v>955.86858579207</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T9" t="n">
-        <v>955.86858579207</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U9" t="n">
-        <v>955.86858579207</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V9" t="n">
-        <v>955.86858579207</v>
+        <v>785.1894034614663</v>
       </c>
       <c r="W9" t="n">
-        <v>955.86858579207</v>
+        <v>530.9520467332648</v>
       </c>
       <c r="X9" t="n">
-        <v>955.86858579207</v>
+        <v>323.1005465277319</v>
       </c>
       <c r="Y9" t="n">
-        <v>955.86858579207</v>
+        <v>115.340247762778</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.32155393434483</v>
+        <v>409.5498655190897</v>
       </c>
       <c r="C10" t="n">
-        <v>36.32155393434483</v>
+        <v>409.5498655190897</v>
       </c>
       <c r="D10" t="n">
-        <v>36.32155393434483</v>
+        <v>409.5498655190897</v>
       </c>
       <c r="E10" t="n">
-        <v>36.32155393434483</v>
+        <v>409.5498655190897</v>
       </c>
       <c r="F10" t="n">
-        <v>36.32155393434483</v>
+        <v>262.6599180211794</v>
       </c>
       <c r="G10" t="n">
-        <v>36.32155393434483</v>
+        <v>94.05307301656273</v>
       </c>
       <c r="H10" t="n">
-        <v>36.32155393434483</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I10" t="n">
-        <v>36.32155393434483</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>511.5573554495302</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227046</v>
+        <v>717.3807202856345</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075543</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R10" t="n">
-        <v>1054.855520006025</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="S10" t="n">
-        <v>1054.855520006025</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="T10" t="n">
-        <v>1054.855520006025</v>
+        <v>664.2343537249766</v>
       </c>
       <c r="U10" t="n">
-        <v>788.4778634388466</v>
+        <v>664.2343537249766</v>
       </c>
       <c r="V10" t="n">
-        <v>533.7933752329598</v>
+        <v>409.5498655190897</v>
       </c>
       <c r="W10" t="n">
-        <v>485.1036839758923</v>
+        <v>409.5498655190897</v>
       </c>
       <c r="X10" t="n">
-        <v>257.114133077875</v>
+        <v>409.5498655190897</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.32155393434483</v>
+        <v>409.5498655190897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.000216055992</v>
+        <v>1480.834877685197</v>
       </c>
       <c r="C11" t="n">
-        <v>1309.03769911558</v>
+        <v>1111.872360744786</v>
       </c>
       <c r="D11" t="n">
-        <v>950.7720005088297</v>
+        <v>753.6066621380355</v>
       </c>
       <c r="E11" t="n">
-        <v>950.7720005088295</v>
+        <v>367.8184095397914</v>
       </c>
       <c r="F11" t="n">
-        <v>539.786095719222</v>
+        <v>367.8184095397914</v>
       </c>
       <c r="G11" t="n">
-        <v>124.7155186758441</v>
+        <v>367.8184095397914</v>
       </c>
       <c r="H11" t="n">
-        <v>66.55733810129031</v>
+        <v>72.97736264669257</v>
       </c>
       <c r="I11" t="n">
-        <v>66.55733810129031</v>
+        <v>72.97736264669257</v>
       </c>
       <c r="J11" t="n">
-        <v>255.5922834057806</v>
+        <v>284.1329404303747</v>
       </c>
       <c r="K11" t="n">
-        <v>589.6451824087765</v>
+        <v>651.3389333372572</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.969104457867</v>
+        <v>1143.792199971218</v>
       </c>
       <c r="M11" t="n">
-        <v>1574.82336599146</v>
+        <v>1723.410782131765</v>
       </c>
       <c r="N11" t="n">
-        <v>2121.929755982947</v>
+        <v>2317.022007303074</v>
       </c>
       <c r="O11" t="n">
-        <v>2625.211544693763</v>
+        <v>2864.216993152327</v>
       </c>
       <c r="P11" t="n">
-        <v>3020.249906663787</v>
+        <v>3296.734252912284</v>
       </c>
       <c r="Q11" t="n">
-        <v>3268.734518130349</v>
+        <v>3573.36395577209</v>
       </c>
       <c r="R11" t="n">
-        <v>3327.866905064516</v>
+        <v>3648.868132334629</v>
       </c>
       <c r="S11" t="n">
-        <v>3327.866905064516</v>
+        <v>3648.868132334629</v>
       </c>
       <c r="T11" t="n">
-        <v>3121.897356994878</v>
+        <v>3444.062656456977</v>
       </c>
       <c r="U11" t="n">
-        <v>3121.897356994878</v>
+        <v>3190.553603314834</v>
       </c>
       <c r="V11" t="n">
-        <v>2790.834469651308</v>
+        <v>2983.808463256325</v>
       </c>
       <c r="W11" t="n">
-        <v>2438.065814381193</v>
+        <v>2631.039807986211</v>
       </c>
       <c r="X11" t="n">
-        <v>2064.600056120114</v>
+        <v>2257.574049725131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2064.600056120114</v>
+        <v>1867.434717749319</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438890993381</v>
+        <v>941.5488037760166</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908598182111</v>
+        <v>767.0957744948896</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564501569599</v>
+        <v>618.1613648336383</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189951515043</v>
+        <v>458.9239098281829</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844371783892</v>
+        <v>312.3893518550678</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0223392140813</v>
+        <v>176.1695345376538</v>
       </c>
       <c r="H12" t="n">
-        <v>85.53012402374182</v>
+        <v>87.05145085810508</v>
       </c>
       <c r="I12" t="n">
-        <v>66.55733810129031</v>
+        <v>72.97736264669257</v>
       </c>
       <c r="J12" t="n">
-        <v>158.6815777611978</v>
+        <v>179.9223312571368</v>
       </c>
       <c r="K12" t="n">
-        <v>397.104390066864</v>
+        <v>440.863141281292</v>
       </c>
       <c r="L12" t="n">
-        <v>764.0158255695209</v>
+        <v>838.0528036099747</v>
       </c>
       <c r="M12" t="n">
-        <v>1211.541032879016</v>
+        <v>1320.911273493746</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.319545688926</v>
+        <v>1604.408883775566</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.514529565752</v>
+        <v>2048.78239448062</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.201689473768</v>
+        <v>2386.098247238884</v>
       </c>
       <c r="Q12" t="n">
-        <v>2564.968631649799</v>
+        <v>2561.665765387942</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.886502745449</v>
+        <v>2561.665765387942</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.467231721465</v>
+        <v>2434.889294976218</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828270981009</v>
+        <v>2242.823825088813</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760490049837</v>
+        <v>2014.765404726515</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608381818094</v>
+        <v>1779.613296494773</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.371025089893</v>
+        <v>1525.375939766571</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51952488436</v>
+        <v>1317.524439561038</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759226119406</v>
+        <v>1109.764140796085</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1014.534911477342</v>
+        <v>768.0351945385671</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6891412005814</v>
+        <v>768.0351945385671</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5725017882456</v>
+        <v>768.0351945385671</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6594082058525</v>
+        <v>620.1221009561739</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7694607079422</v>
+        <v>479.4224902348645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0674642960522</v>
+        <v>311.8397771378136</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8577477747863</v>
+        <v>166.6905977248448</v>
       </c>
       <c r="I13" t="n">
-        <v>66.55733810129031</v>
+        <v>72.97736264669257</v>
       </c>
       <c r="J13" t="n">
-        <v>111.7381915135438</v>
+        <v>126.4237231439255</v>
       </c>
       <c r="K13" t="n">
-        <v>315.8210493932112</v>
+        <v>344.089348227661</v>
       </c>
       <c r="L13" t="n">
-        <v>632.5032788133942</v>
+        <v>678.1528432859761</v>
       </c>
       <c r="M13" t="n">
-        <v>976.7894107064981</v>
+        <v>1040.76508276122</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.323804322379</v>
+        <v>1400.189830081802</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.76980025562</v>
+        <v>1716.160463298991</v>
       </c>
       <c r="P13" t="n">
-        <v>1850.476898441959</v>
+        <v>1963.007243401051</v>
       </c>
       <c r="Q13" t="n">
-        <v>1928.156150915876</v>
+        <v>2050.476078716648</v>
       </c>
       <c r="R13" t="n">
-        <v>1928.156150915876</v>
+        <v>2050.476078716648</v>
       </c>
       <c r="S13" t="n">
-        <v>1928.156150915876</v>
+        <v>2050.476078716648</v>
       </c>
       <c r="T13" t="n">
-        <v>1706.393125488073</v>
+        <v>1829.22271836134</v>
       </c>
       <c r="U13" t="n">
-        <v>1706.393125488073</v>
+        <v>1540.126403679432</v>
       </c>
       <c r="V13" t="n">
-        <v>1706.393125488073</v>
+        <v>1285.441915473545</v>
       </c>
       <c r="W13" t="n">
-        <v>1416.975955451112</v>
+        <v>996.0247454365845</v>
       </c>
       <c r="X13" t="n">
-        <v>1416.975955451112</v>
+        <v>768.0351945385671</v>
       </c>
       <c r="Y13" t="n">
-        <v>1196.183376307582</v>
+        <v>768.0351945385671</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608043</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J15" t="n">
         <v>240.4596049779265</v>
@@ -5364,16 +5364,16 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1355.754362358723</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.0885253246422</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C16" t="n">
-        <v>745.0885253246422</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D16" t="n">
-        <v>594.9718859123064</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156344</v>
@@ -5440,7 +5440,7 @@
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693328</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5449,7 +5449,7 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856733</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1983.500367111705</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1983.500367111705</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1728.815878905818</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1728.815878905818</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.529569298412</v>
+        <v>1500.8263280078</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548818</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
@@ -5589,28 +5589,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J18" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.755759562691</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.851722962027</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O18" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476008</v>
+        <v>783.7476391326287</v>
       </c>
       <c r="C19" t="n">
-        <v>390.8549350618531</v>
+        <v>614.8114562047218</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7382956495174</v>
+        <v>464.6948167923861</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>316.7817232099931</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
         <v>93.84834815160703</v>
@@ -5689,34 +5689,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062236</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856349</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819388</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213706</v>
+        <v>965.3961039628684</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778405</v>
+        <v>965.3961039628684</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.848348151607</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
@@ -5826,22 +5826,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K21" t="n">
-        <v>302.0892292003568</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L21" t="n">
-        <v>792.8215620441082</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M21" t="n">
-        <v>1384.839916296236</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695572</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O21" t="n">
         <v>2553.812354695766</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.5727324492567</v>
+        <v>810.6593445000769</v>
       </c>
       <c r="C22" t="n">
-        <v>782.5727324492567</v>
+        <v>641.7231615721701</v>
       </c>
       <c r="D22" t="n">
-        <v>632.4560930369209</v>
+        <v>491.6065221598343</v>
       </c>
       <c r="E22" t="n">
-        <v>632.4560930369209</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390107</v>
+        <v>343.6934285774411</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135897</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H22" t="n">
         <v>176.4792337520202</v>
@@ -5908,13 +5908,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117243</v>
       </c>
       <c r="L22" t="n">
-        <v>820.221016094859</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M22" t="n">
         <v>1239.450608139318</v>
@@ -5923,7 +5923,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P22" t="n">
         <v>2311.699365782259</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.237592652322</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.067402391252</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.388620105635</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.312406420361</v>
+        <v>1695.774427577751</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.627918214474</v>
+        <v>1441.089939371864</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.210748177514</v>
+        <v>1441.089939371864</v>
       </c>
       <c r="X22" t="n">
-        <v>964.2211972794964</v>
+        <v>1213.100388473847</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.2211972794964</v>
+        <v>992.3078093303167</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5996,7 +5996,7 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
         <v>2971.58344915112</v>
@@ -6014,7 +6014,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6066,25 +6066,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>142.676769632785</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.3053695472204</v>
+        <v>744.6035248193381</v>
       </c>
       <c r="C25" t="n">
-        <v>780.3691866193135</v>
+        <v>575.6673418914312</v>
       </c>
       <c r="D25" t="n">
-        <v>780.3691866193135</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E25" t="n">
-        <v>632.4560930369204</v>
+        <v>323.3691812499306</v>
       </c>
       <c r="F25" t="n">
-        <v>485.56614553901</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135897</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
         <v>176.4792337520202</v>
@@ -6145,13 +6145,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6163,34 +6163,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V25" t="n">
-        <v>1579.735964419008</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W25" t="n">
-        <v>1579.735964419008</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1351.74641352099</v>
+        <v>965.3961039628682</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.95383437746</v>
+        <v>744.6035248193381</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.848348151607</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
@@ -6239,13 +6239,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6300,25 +6300,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L27" t="n">
-        <v>424.3570907149658</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.375444967094</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N27" t="n">
-        <v>1638.47140836643</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O27" t="n">
-        <v>2185.347883366624</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149475997</v>
+        <v>571.8714428665046</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196927</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="D28" t="n">
-        <v>326.1595320196927</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="E28" t="n">
-        <v>326.1595320196927</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="F28" t="n">
-        <v>326.1595320196927</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="G28" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6382,22 +6382,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411605</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948582</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139317</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931024</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
         <v>2311.699365782259</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294195</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062234</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856347</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213695</v>
+        <v>974.3124868402745</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778393</v>
+        <v>753.5199076967443</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6452,16 +6452,16 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
@@ -6470,43 +6470,43 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160704</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953584</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247486</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.694998646823</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.571473647017</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>1010.623393172734</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196932</v>
+        <v>841.6872102448269</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196932</v>
+        <v>691.5705708324913</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196932</v>
+        <v>543.6574772500981</v>
       </c>
       <c r="F31" t="n">
-        <v>326.1595320196932</v>
+        <v>396.7675297521878</v>
       </c>
       <c r="G31" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6637,34 +6637,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
         <v>2429.412499335694</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294195</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1957.166095389351</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1702.481607183464</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1413.064437146504</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>1413.064437146504</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>1192.271858002973</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1930.119265768719</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.482104401312</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E32" t="n">
         <v>1193.32238904241</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921451</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G32" t="n">
         <v>375.6104516478937</v>
@@ -6698,25 +6698,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O32" t="n">
         <v>3602.609239333934</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q32" t="n">
         <v>4514.49737412729</v>
@@ -6740,10 +6740,10 @@
         <v>3434.772564052773</v>
       </c>
       <c r="X32" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y32" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>92.81162322608056</v>
       </c>
       <c r="K33" t="n">
-        <v>92.81162322608056</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L33" t="n">
-        <v>583.5439560698319</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M33" t="n">
-        <v>1175.56231032196</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N33" t="n">
-        <v>1797.658273721296</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O33" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
         <v>2552.77562977024</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>912.7280405750199</v>
+        <v>847.495072824569</v>
       </c>
       <c r="C34" t="n">
-        <v>907.6778776700675</v>
+        <v>682.1874271360041</v>
       </c>
       <c r="D34" t="n">
-        <v>761.1897754970744</v>
+        <v>682.1874271360041</v>
       </c>
       <c r="E34" t="n">
-        <v>616.9052191540241</v>
+        <v>537.9028707929536</v>
       </c>
       <c r="F34" t="n">
-        <v>473.6438088954563</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0581513093779</v>
+        <v>231.0558029483075</v>
       </c>
       <c r="H34" t="n">
-        <v>171.813971587151</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I34" t="n">
         <v>92.81162322608056</v>
@@ -6871,7 +6871,7 @@
         <v>1670.891395746897</v>
       </c>
       <c r="O34" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P34" t="n">
         <v>2335.556946294691</v>
@@ -6880,28 +6880,28 @@
         <v>2456.826409196406</v>
       </c>
       <c r="R34" t="n">
-        <v>2392.59560139425</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="S34" t="n">
-        <v>2392.59560139425</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="T34" t="n">
-        <v>2176.545356347975</v>
+        <v>2240.776164150131</v>
       </c>
       <c r="U34" t="n">
-        <v>1891.097679902044</v>
+        <v>2003.88463974249</v>
       </c>
       <c r="V34" t="n">
-        <v>1640.0417289355</v>
+        <v>1752.828688775946</v>
       </c>
       <c r="W34" t="n">
-        <v>1354.253096137882</v>
+        <v>1467.040055978328</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.892082479207</v>
+        <v>1242.679042319653</v>
       </c>
       <c r="Y34" t="n">
-        <v>912.7280405750199</v>
+        <v>1025.515000415466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2291.876062224359</v>
+        <v>2304.87827268839</v>
       </c>
       <c r="C35" t="n">
-        <v>1922.913545283947</v>
+        <v>1935.915755747978</v>
       </c>
       <c r="D35" t="n">
-        <v>1564.647846677196</v>
+        <v>1577.650057141228</v>
       </c>
       <c r="E35" t="n">
-        <v>1178.859594078952</v>
+        <v>1191.861804542984</v>
       </c>
       <c r="F35" t="n">
-        <v>767.8736892893446</v>
+        <v>780.8758997533761</v>
       </c>
       <c r="G35" t="n">
-        <v>353.8905822057511</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K35" t="n">
         <v>841.9378825128761</v>
@@ -6956,31 +6956,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S35" t="n">
-        <v>4555.113898070876</v>
+        <v>4567.460094288331</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.007457738022</v>
+        <v>4378.597142185104</v>
       </c>
       <c r="U35" t="n">
-        <v>4125.912535139057</v>
+        <v>4126.568549385634</v>
       </c>
       <c r="V35" t="n">
-        <v>3794.849647795486</v>
+        <v>3795.505662042064</v>
       </c>
       <c r="W35" t="n">
-        <v>3442.080992525372</v>
+        <v>3442.73700677195</v>
       </c>
       <c r="X35" t="n">
-        <v>3068.615234264292</v>
+        <v>3069.27124851087</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.47590228848</v>
+        <v>2691.478112752512</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J36" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K36" t="n">
-        <v>240.4596049779265</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4596049779265</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M36" t="n">
-        <v>832.4779592300542</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N36" t="n">
-        <v>1454.57392262939</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O36" t="n">
-        <v>2001.450397629585</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
-        <v>2421.03391605566</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
         <v>2552.77562977024</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.9464372636328</v>
+        <v>701.9788112809724</v>
       </c>
       <c r="C37" t="n">
-        <v>777.3586610172113</v>
+        <v>545.3888245705194</v>
       </c>
       <c r="D37" t="n">
-        <v>652.5904282863609</v>
+        <v>545.3888245705194</v>
       </c>
       <c r="E37" t="n">
-        <v>530.0257413854531</v>
+        <v>545.3888245705194</v>
       </c>
       <c r="F37" t="n">
-        <v>408.4842005690281</v>
+        <v>447.4908319611225</v>
       </c>
       <c r="G37" t="n">
-        <v>266.6184124250924</v>
+        <v>292.6228333531553</v>
       </c>
       <c r="H37" t="n">
-        <v>150.0941021450082</v>
+        <v>163.0963126090397</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6377195041583</v>
+        <v>183.8942530283611</v>
       </c>
       <c r="K37" t="n">
-        <v>481.1104198632457</v>
+        <v>455.6234869116514</v>
       </c>
       <c r="L37" t="n">
-        <v>893.7162113349037</v>
+        <v>855.4858119075122</v>
       </c>
       <c r="M37" t="n">
-        <v>1337.789776767887</v>
+        <v>1286.815910864698</v>
       </c>
       <c r="N37" t="n">
-        <v>1777.329615948117</v>
+        <v>1713.612283569132</v>
       </c>
       <c r="O37" t="n">
-        <v>2169.196046351671</v>
+        <v>2092.735247496888</v>
       </c>
       <c r="P37" t="n">
-        <v>2484.570454576399</v>
+        <v>2395.366189245819</v>
       </c>
       <c r="Q37" t="n">
-        <v>2627.127561518358</v>
+        <v>2525.179829711981</v>
       </c>
       <c r="R37" t="n">
-        <v>2584.616623158345</v>
+        <v>2469.666680887936</v>
       </c>
       <c r="S37" t="n">
-        <v>2426.794839578761</v>
+        <v>2298.84268684432</v>
       </c>
       <c r="T37" t="n">
-        <v>2232.464463974628</v>
+        <v>2091.510100776156</v>
       </c>
       <c r="U37" t="n">
-        <v>1968.736656970841</v>
+        <v>1814.780083308337</v>
       </c>
       <c r="V37" t="n">
-        <v>1739.400575446439</v>
+        <v>1572.441791319904</v>
       </c>
       <c r="W37" t="n">
-        <v>1475.331812090964</v>
+        <v>1295.370817500398</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.690667874432</v>
+        <v>1079.727462819834</v>
       </c>
       <c r="Y37" t="n">
-        <v>1077.246495412387</v>
+        <v>871.2810798937581</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2266.527655542873</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C38" t="n">
-        <v>1897.565138602462</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D38" t="n">
-        <v>1539.299439995711</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E38" t="n">
-        <v>1153.511187397467</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F38" t="n">
-        <v>742.5252826078593</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G38" t="n">
-        <v>353.8905822057511</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128779</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S38" t="n">
-        <v>4555.216606058703</v>
+        <v>4567.46009428833</v>
       </c>
       <c r="T38" t="n">
-        <v>4354.007457738022</v>
+        <v>4378.597142185103</v>
       </c>
       <c r="U38" t="n">
-        <v>4100.564128457571</v>
+        <v>4126.568549385634</v>
       </c>
       <c r="V38" t="n">
-        <v>3769.501241114001</v>
+        <v>3807.851858259517</v>
       </c>
       <c r="W38" t="n">
-        <v>3416.732585843887</v>
+        <v>3455.083202989403</v>
       </c>
       <c r="X38" t="n">
-        <v>3043.266827582807</v>
+        <v>3081.617444728323</v>
       </c>
       <c r="Y38" t="n">
-        <v>2653.127495606995</v>
+        <v>2691.478112752512</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G39" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K39" t="n">
-        <v>92.81162322608056</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L39" t="n">
-        <v>372.2013186925058</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M39" t="n">
-        <v>964.2196729446335</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N39" t="n">
-        <v>1586.31563634397</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O39" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P39" t="n">
         <v>2552.77562977024</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.9464372636328</v>
+        <v>741.8512618664572</v>
       </c>
       <c r="C40" t="n">
-        <v>777.3586610172113</v>
+        <v>585.2612751560042</v>
       </c>
       <c r="D40" t="n">
-        <v>652.590428286361</v>
+        <v>447.4908319611225</v>
       </c>
       <c r="E40" t="n">
-        <v>530.0257413854532</v>
+        <v>447.4908319611225</v>
       </c>
       <c r="F40" t="n">
-        <v>408.4842005690282</v>
+        <v>447.4908319611225</v>
       </c>
       <c r="G40" t="n">
-        <v>266.6184124250925</v>
+        <v>292.6228333531553</v>
       </c>
       <c r="H40" t="n">
-        <v>150.0941021450083</v>
+        <v>163.0963126090397</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6377195041583</v>
+        <v>183.8942530283611</v>
       </c>
       <c r="K40" t="n">
-        <v>481.1104198632457</v>
+        <v>455.6234869116516</v>
       </c>
       <c r="L40" t="n">
-        <v>893.7162113349038</v>
+        <v>855.4858119075125</v>
       </c>
       <c r="M40" t="n">
-        <v>1337.789776767888</v>
+        <v>1286.815910864698</v>
       </c>
       <c r="N40" t="n">
-        <v>1777.329615948118</v>
+        <v>1713.612283569132</v>
       </c>
       <c r="O40" t="n">
-        <v>2169.196046351672</v>
+        <v>2092.735247496888</v>
       </c>
       <c r="P40" t="n">
-        <v>2484.5704545764</v>
+        <v>2395.366189245819</v>
       </c>
       <c r="Q40" t="n">
-        <v>2627.127561518359</v>
+        <v>2525.179829711981</v>
       </c>
       <c r="R40" t="n">
-        <v>2584.616623158346</v>
+        <v>2469.666680887936</v>
       </c>
       <c r="S40" t="n">
-        <v>2426.794839578761</v>
+        <v>2298.84268684432</v>
       </c>
       <c r="T40" t="n">
-        <v>2232.464463974628</v>
+        <v>2091.510100776156</v>
       </c>
       <c r="U40" t="n">
-        <v>1968.736656970841</v>
+        <v>1854.652533893821</v>
       </c>
       <c r="V40" t="n">
-        <v>1739.400575446439</v>
+        <v>1612.314241905388</v>
       </c>
       <c r="W40" t="n">
-        <v>1475.331812090964</v>
+        <v>1335.243268085882</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.690667874432</v>
+        <v>1119.599913405318</v>
       </c>
       <c r="Y40" t="n">
-        <v>1077.246495412387</v>
+        <v>911.1535304792429</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2291.876062224359</v>
+        <v>2303.463536207407</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.913545283947</v>
+        <v>1934.501019266995</v>
       </c>
       <c r="D41" t="n">
-        <v>1589.996253358682</v>
+        <v>1576.235320660245</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.208000760437</v>
+        <v>1190.447068062</v>
       </c>
       <c r="F41" t="n">
-        <v>793.22209597083</v>
+        <v>779.4611632723929</v>
       </c>
       <c r="G41" t="n">
-        <v>379.2389888872365</v>
+        <v>377.8242524062533</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J41" t="n">
         <v>372.3074987251944</v>
@@ -7430,31 +7430,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
-        <v>4555.113898070877</v>
+        <v>4567.46009428833</v>
       </c>
       <c r="T41" t="n">
-        <v>4379.253156431681</v>
+        <v>4378.597142185103</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.809827151231</v>
+        <v>4137.500009122105</v>
       </c>
       <c r="V41" t="n">
-        <v>3794.74693980766</v>
+        <v>3806.437121778535</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.978284537546</v>
+        <v>3453.66846650842</v>
       </c>
       <c r="X41" t="n">
-        <v>3068.512526276466</v>
+        <v>3080.202708247341</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.373194300654</v>
+        <v>2690.063376271529</v>
       </c>
     </row>
     <row r="42">
@@ -7476,19 +7476,19 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K42" t="n">
         <v>423.3203657894393</v>
@@ -7497,19 +7497,19 @@
         <v>914.0526986331906</v>
       </c>
       <c r="M42" t="n">
-        <v>914.0526986331906</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.9464372636323</v>
+        <v>701.9788112809726</v>
       </c>
       <c r="C43" t="n">
-        <v>777.3586610172108</v>
+        <v>545.3888245705198</v>
       </c>
       <c r="D43" t="n">
-        <v>652.5904282863605</v>
+        <v>511.7498938586197</v>
       </c>
       <c r="E43" t="n">
-        <v>530.0257413854536</v>
+        <v>511.7498938586197</v>
       </c>
       <c r="F43" t="n">
-        <v>408.4842005690286</v>
+        <v>377.2061425781633</v>
       </c>
       <c r="G43" t="n">
-        <v>266.6184124250929</v>
+        <v>222.3381439701962</v>
       </c>
       <c r="H43" t="n">
-        <v>150.0941021450083</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6377195041583</v>
+        <v>183.894253028361</v>
       </c>
       <c r="K43" t="n">
-        <v>481.1104198632459</v>
+        <v>455.6234869116513</v>
       </c>
       <c r="L43" t="n">
-        <v>893.7162113349038</v>
+        <v>855.4858119075121</v>
       </c>
       <c r="M43" t="n">
-        <v>1337.789776767887</v>
+        <v>1286.815910864698</v>
       </c>
       <c r="N43" t="n">
-        <v>1777.329615948118</v>
+        <v>1713.612283569131</v>
       </c>
       <c r="O43" t="n">
-        <v>2169.196046351671</v>
+        <v>2092.735247496887</v>
       </c>
       <c r="P43" t="n">
-        <v>2484.570454576399</v>
+        <v>2395.366189245819</v>
       </c>
       <c r="Q43" t="n">
-        <v>2627.127561518358</v>
+        <v>2525.17982971198</v>
       </c>
       <c r="R43" t="n">
-        <v>2584.616623158345</v>
+        <v>2469.666680887936</v>
       </c>
       <c r="S43" t="n">
-        <v>2426.794839578761</v>
+        <v>2298.842686844321</v>
       </c>
       <c r="T43" t="n">
-        <v>2232.464463974628</v>
+        <v>2091.510100776157</v>
       </c>
       <c r="U43" t="n">
-        <v>1968.73665697084</v>
+        <v>1814.780083308337</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.400575446439</v>
+        <v>1572.441791319904</v>
       </c>
       <c r="W43" t="n">
-        <v>1475.331812090963</v>
+        <v>1295.370817500398</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.690667874431</v>
+        <v>1079.727462819834</v>
       </c>
       <c r="Y43" t="n">
-        <v>1077.246495412387</v>
+        <v>871.2810798937584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.224468905844</v>
+        <v>2315.809732424862</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.261951965432</v>
+        <v>1946.84721548445</v>
       </c>
       <c r="D44" t="n">
-        <v>1589.996253358682</v>
+        <v>1588.581516877699</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.208000760437</v>
+        <v>1202.793264279455</v>
       </c>
       <c r="F44" t="n">
-        <v>793.22209597083</v>
+        <v>791.8073594898476</v>
       </c>
       <c r="G44" t="n">
-        <v>379.2389888872365</v>
+        <v>377.8242524062541</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J44" t="n">
         <v>372.3074987251936</v>
@@ -7670,28 +7670,28 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S44" t="n">
-        <v>4580.462304752362</v>
+        <v>4567.46009428833</v>
       </c>
       <c r="T44" t="n">
-        <v>4379.355864419507</v>
+        <v>4378.597142185103</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.912535139057</v>
+        <v>4125.153812904652</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.198054476972</v>
+        <v>3794.090925561081</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.429399206857</v>
+        <v>3441.322270290967</v>
       </c>
       <c r="X44" t="n">
-        <v>3093.963640945778</v>
+        <v>3067.856512029887</v>
       </c>
       <c r="Y44" t="n">
-        <v>2703.824308969966</v>
+        <v>2690.063376271529</v>
       </c>
     </row>
     <row r="45">
@@ -7713,31 +7713,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G45" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0073801158079</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.739712959559</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.758067211687</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N45" t="n">
-        <v>2276.854030611023</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O45" t="n">
         <v>2552.77562977024</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.9464372636326</v>
+        <v>882.4353897677366</v>
       </c>
       <c r="C46" t="n">
-        <v>777.358661017211</v>
+        <v>725.8454030572841</v>
       </c>
       <c r="D46" t="n">
-        <v>652.5904282863607</v>
+        <v>588.0749598624024</v>
       </c>
       <c r="E46" t="n">
-        <v>530.025741385453</v>
+        <v>452.5080624974632</v>
       </c>
       <c r="F46" t="n">
-        <v>408.484200569028</v>
+        <v>317.9643112170069</v>
       </c>
       <c r="G46" t="n">
-        <v>266.6184124250922</v>
+        <v>163.0963126090397</v>
       </c>
       <c r="H46" t="n">
-        <v>150.0941021450082</v>
+        <v>163.0963126090397</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J46" t="n">
-        <v>196.6377195041583</v>
+        <v>183.894253028361</v>
       </c>
       <c r="K46" t="n">
-        <v>481.1104198632457</v>
+        <v>455.6234869116514</v>
       </c>
       <c r="L46" t="n">
-        <v>893.7162113349036</v>
+        <v>855.4858119075124</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.789776767887</v>
+        <v>1286.815910864698</v>
       </c>
       <c r="N46" t="n">
-        <v>1777.329615948117</v>
+        <v>1713.612283569132</v>
       </c>
       <c r="O46" t="n">
-        <v>2169.196046351671</v>
+        <v>2092.735247496888</v>
       </c>
       <c r="P46" t="n">
-        <v>2484.570454576399</v>
+        <v>2395.366189245819</v>
       </c>
       <c r="Q46" t="n">
-        <v>2627.127561518358</v>
+        <v>2525.179829711981</v>
       </c>
       <c r="R46" t="n">
-        <v>2584.616623158345</v>
+        <v>2469.666680887936</v>
       </c>
       <c r="S46" t="n">
-        <v>2426.79483957876</v>
+        <v>2298.842686844321</v>
       </c>
       <c r="T46" t="n">
-        <v>2232.464463974628</v>
+        <v>2091.510100776156</v>
       </c>
       <c r="U46" t="n">
-        <v>1968.73665697084</v>
+        <v>1814.780083308337</v>
       </c>
       <c r="V46" t="n">
-        <v>1739.400575446439</v>
+        <v>1572.441791319904</v>
       </c>
       <c r="W46" t="n">
-        <v>1475.331812090963</v>
+        <v>1306.525127374376</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.690667874431</v>
+        <v>1090.881772693813</v>
       </c>
       <c r="Y46" t="n">
-        <v>1077.246495412387</v>
+        <v>882.4353897677366</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>202.1809638361345</v>
       </c>
       <c r="L2" t="n">
-        <v>250.4751301597643</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
-        <v>244.1059827132785</v>
+        <v>237.3382646615595</v>
       </c>
       <c r="N2" t="n">
         <v>242.7727963709657</v>
@@ -7994,10 +7994,10 @@
         <v>244.8579146936526</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>162.6037712654842</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>160.6795236990645</v>
       </c>
       <c r="M3" t="n">
-        <v>159.973720214579</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N3" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>163.1546825303321</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
         <v>158.0709840006057</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>167.5073133874343</v>
       </c>
       <c r="N4" t="n">
-        <v>156.5024627066173</v>
+        <v>156.5024627066172</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>166.3947172999385</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>239.6073177468831</v>
+        <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>250.0009612036581</v>
+        <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>200.0350913355963</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>238.4114643306874</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>242.4889249795809</v>
+        <v>243.3031242353586</v>
       </c>
       <c r="P5" t="n">
-        <v>206.4095487272973</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6643149542597</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>164.4028627391214</v>
+        <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>159.9759609255825</v>
+        <v>160.6795236990645</v>
       </c>
       <c r="M6" t="n">
-        <v>160.2075066781868</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
-        <v>107.3199964884967</v>
+        <v>148.6762332094833</v>
       </c>
       <c r="O6" t="n">
-        <v>120.6210676982412</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>116.3373907096978</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.0123486688516</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>168.2636277482495</v>
+        <v>167.5073133874343</v>
       </c>
       <c r="N7" t="n">
-        <v>157.3120016972134</v>
+        <v>156.5024627066173</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>60.49244923701501</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>99.37288961069065</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>127.2770751262504</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.6566088011988</v>
       </c>
       <c r="H11" t="n">
-        <v>237.0121744441223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.50543876834524</v>
+        <v>31.35601232637904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1455050923226</v>
+        <v>103.1464115174233</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9950236084612</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>123.0745698122113</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>76.31950852463449</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6.128433408834894</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.89475141116012</v>
+        <v>83.58497393441135</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7545291298069</v>
+        <v>187.6965340988875</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2117928340897</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.2915261372903</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729085</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100.7123932792575</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>25.5745811868259</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>64.04844901173777</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>90.25905959229605</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.01759397454549</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>25.88499492036103</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>45.27425662969584</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.144559717033</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.00797063971559</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440902</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>8.827219048632186</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.106052884546502</v>
       </c>
       <c r="H31" t="n">
-        <v>76.00797063971559</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.239728314988</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>158.6549079557758</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>78.21232487745976</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.58849972413429</v>
       </c>
       <c r="S34" t="n">
         <v>177.7462364915097</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>48.07059051790738</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>136.3927387629329</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134.2112283912897</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>36.27930108434882</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.2112283912897</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.1983137676518</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.47372607962926</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.0901973581511</v>
       </c>
       <c r="E43" t="n">
-        <v>7.638334409421077e-13</v>
+        <v>134.2112283912897</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.58184248912957</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>167.6092459266578</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>128.2312555366745</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>11.04276677523848</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1214777.785858463</v>
+        <v>1215536.64592353</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1160194.873539889</v>
+        <v>1162197.759093742</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>962401.7289420667</v>
+        <v>1003646.840193332</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1156777.805390145</v>
+        <v>1146466.527577329</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1156777.805390145</v>
+        <v>1146466.527577329</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1156777.805390145</v>
+        <v>1146466.527577329</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1156777.805390145</v>
+        <v>1146466.527577329</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>287364.6194524993</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>238770.6003404797</v>
+        <v>249081.8781532959</v>
       </c>
       <c r="F2" t="n">
-        <v>280937.9200733108</v>
+        <v>280937.9200733106</v>
       </c>
       <c r="G2" t="n">
-        <v>282339.0419914956</v>
+        <v>282339.0419914957</v>
       </c>
       <c r="H2" t="n">
-        <v>282339.0419914956</v>
+        <v>282339.0419914957</v>
       </c>
       <c r="I2" t="n">
         <v>282339.0419914958</v>
@@ -26338,22 +26338,22 @@
         <v>282339.0419914956</v>
       </c>
       <c r="K2" t="n">
-        <v>282339.0419914956</v>
+        <v>282339.0419914957</v>
       </c>
       <c r="L2" t="n">
         <v>283058.4361212958</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524987</v>
+        <v>284786.799999295</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524987</v>
+        <v>284786.799999295</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524989</v>
+        <v>284786.7999992949</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.619452499</v>
+        <v>284786.7999992949</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46642.83166352184</v>
+        <v>46642.83166352186</v>
       </c>
       <c r="C3" t="n">
-        <v>8178.373673358383</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>558144.66834397</v>
+        <v>545552.3411002479</v>
       </c>
       <c r="E3" t="n">
-        <v>552234.6201387928</v>
+        <v>647917.1205012419</v>
       </c>
       <c r="F3" t="n">
-        <v>305715.2896798289</v>
+        <v>230957.9822795216</v>
       </c>
       <c r="G3" t="n">
-        <v>3551.884390161652</v>
+        <v>3551.88439016159</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>10068.3394680798</v>
       </c>
       <c r="K3" t="n">
-        <v>770.7488502944598</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55840.43794592711</v>
+        <v>54414.58209693307</v>
       </c>
       <c r="M3" t="n">
-        <v>158813.018898706</v>
+        <v>170664.2229032453</v>
       </c>
       <c r="N3" t="n">
-        <v>80379.79115949367</v>
+        <v>60724.32426159689</v>
       </c>
       <c r="O3" t="n">
-        <v>3118.611125660987</v>
+        <v>3118.611125660933</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>397057.3584744651</v>
       </c>
       <c r="C4" t="n">
-        <v>395003.0101541514</v>
+        <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>246753.8673982313</v>
+        <v>252058.5086307145</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.859779972358</v>
+        <v>7982.390099434157</v>
       </c>
       <c r="F4" t="n">
         <v>8110.779805506623</v>
       </c>
       <c r="G4" t="n">
-        <v>9342.252565816063</v>
+        <v>9342.252565816061</v>
       </c>
       <c r="H4" t="n">
         <v>9342.252565816061</v>
       </c>
       <c r="I4" t="n">
+        <v>9342.252565816081</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9342.252565816078</v>
+      </c>
+      <c r="K4" t="n">
         <v>9342.252565816092</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9342.252565816061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9342.252565816083</v>
       </c>
       <c r="L4" t="n">
         <v>11577.70757651843</v>
       </c>
       <c r="M4" t="n">
-        <v>18653.15784945325</v>
+        <v>14417.56638691952</v>
       </c>
       <c r="N4" t="n">
-        <v>18653.15784945322</v>
+        <v>14417.56638691956</v>
       </c>
       <c r="O4" t="n">
-        <v>18653.1578494532</v>
+        <v>14417.56638691959</v>
       </c>
       <c r="P4" t="n">
-        <v>18653.15784945321</v>
+        <v>14417.56638691955</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>36730.71216531784</v>
       </c>
       <c r="C5" t="n">
-        <v>37085.42157112529</v>
+        <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.80320426619</v>
+        <v>62074.5699651066</v>
       </c>
       <c r="E5" t="n">
-        <v>74350.76487182078</v>
+        <v>80657.5900949841</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26494,22 +26494,22 @@
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>100444.125536041</v>
       </c>
       <c r="M5" t="n">
-        <v>102251.8335631311</v>
+        <v>101169.6815599455</v>
       </c>
       <c r="N5" t="n">
-        <v>102251.8335631312</v>
+        <v>101169.6815599455</v>
       </c>
       <c r="O5" t="n">
-        <v>102251.8335631312</v>
+        <v>101169.6815599455</v>
       </c>
       <c r="P5" t="n">
-        <v>102251.8335631312</v>
+        <v>101169.6815599455</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-193066.2828508055</v>
       </c>
       <c r="C6" t="n">
-        <v>-152902.1859461359</v>
+        <v>-146423.4511872837</v>
       </c>
       <c r="D6" t="n">
-        <v>-580581.7194939682</v>
+        <v>-572320.8002435697</v>
       </c>
       <c r="E6" t="n">
-        <v>-395755.6444501062</v>
+        <v>-487748.6706945014</v>
       </c>
       <c r="F6" t="n">
-        <v>-133030.2779258632</v>
+        <v>-58318.8755211217</v>
       </c>
       <c r="G6" t="n">
-        <v>168514.8655782794</v>
+        <v>168478.9685964152</v>
       </c>
       <c r="H6" t="n">
-        <v>172066.7499684411</v>
+        <v>172030.8529865768</v>
       </c>
       <c r="I6" t="n">
-        <v>172066.7499684411</v>
+        <v>172030.8529865768</v>
       </c>
       <c r="J6" t="n">
-        <v>161998.4105003613</v>
+        <v>161962.5135184969</v>
       </c>
       <c r="K6" t="n">
-        <v>171296.0011181465</v>
+        <v>172030.8529865767</v>
       </c>
       <c r="L6" t="n">
-        <v>115196.1650628092</v>
+        <v>116591.2624594376</v>
       </c>
       <c r="M6" t="n">
-        <v>7646.609141208304</v>
+        <v>-1483.083846909595</v>
       </c>
       <c r="N6" t="n">
-        <v>86079.83688042068</v>
+        <v>108456.8147947387</v>
       </c>
       <c r="O6" t="n">
-        <v>163341.0169142535</v>
+        <v>166062.5279306746</v>
       </c>
       <c r="P6" t="n">
-        <v>166459.6280399146</v>
+        <v>169181.1390563356</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>3.592251866949249</v>
       </c>
       <c r="M2" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="N2" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="O2" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="P2" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>35.02126071912535</v>
+      </c>
+      <c r="C3" t="n">
         <v>35.02126071912533</v>
       </c>
-      <c r="C3" t="n">
-        <v>42.94004710117682</v>
-      </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1090.23797774496</v>
+        <v>1155.724517591639</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,16 +26790,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015061</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="E4" t="n">
-        <v>831.9667262661289</v>
+        <v>912.2170330836572</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1173.104351895088</v>
@@ -26938,7 +26938,7 @@
         <v>3.592251866949249</v>
       </c>
       <c r="M2" t="n">
-        <v>21.50267074772128</v>
+        <v>8.630482388330197</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912535</v>
       </c>
       <c r="C3" t="n">
-        <v>7.918786382051493</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>571.1149666683015</v>
+        <v>558.4548396189398</v>
       </c>
       <c r="E3" t="n">
-        <v>476.182963975482</v>
+        <v>562.2484172535743</v>
       </c>
       <c r="F3" t="n">
-        <v>267.8030709714255</v>
+        <v>202.3165311247465</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>2.994734583531757</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>222.2380815751963</v>
+        <v>216.6043140805241</v>
       </c>
       <c r="E4" t="n">
-        <v>568.2528462646228</v>
+        <v>657.131655160355</v>
       </c>
       <c r="F4" t="n">
-        <v>328.1785640598775</v>
+        <v>247.9282572423496</v>
       </c>
       <c r="G4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908109</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>38.48106384277798</v>
       </c>
       <c r="K4" t="n">
-        <v>2.994734583531984</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>209.2790200061152</v>
+        <v>203.6452525114432</v>
       </c>
       <c r="M4" t="n">
-        <v>568.2528462646226</v>
+        <v>657.131655160355</v>
       </c>
       <c r="N4" t="n">
-        <v>328.1785640598778</v>
+        <v>247.9282572423493</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908109</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="K4" t="n">
-        <v>2.994734583531757</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>222.2380815751963</v>
+        <v>216.6043140805241</v>
       </c>
       <c r="M4" t="n">
-        <v>568.2528462646228</v>
+        <v>657.131655160355</v>
       </c>
       <c r="N4" t="n">
-        <v>328.1785640598775</v>
+        <v>247.9282572423496</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908109</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>388.1438732363119</v>
+        <v>372.9819247089925</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>376.6808846845414</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27427,13 +27427,13 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T2" t="n">
-        <v>183.9984819271906</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>212.8533259460332</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27461,7 +27461,7 @@
         <v>138.8143779555968</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>108.9640017218607</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>73.02686326066636</v>
       </c>
       <c r="I3" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>95.48084390037955</v>
       </c>
       <c r="S3" t="n">
         <v>131.802908778555</v>
@@ -27555,10 +27555,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>115.0702253392529</v>
       </c>
       <c r="J4" t="n">
-        <v>50.4131925917203</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>135.9727348210013</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>203.9541414729397</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>189.1946896422577</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>247.8345207995437</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>267.5611279495841</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>348.0362490395428</v>
       </c>
       <c r="F5" t="n">
-        <v>365.4002473154016</v>
+        <v>368.3949818989333</v>
       </c>
       <c r="G5" t="n">
-        <v>373.6543157838959</v>
+        <v>376.6808846845414</v>
       </c>
       <c r="H5" t="n">
-        <v>337.7069236941594</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>203.820829607117</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>97.5497708365713</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>168.554532771274</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.3401910468031</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3318430434421</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>347.7568748132755</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>138.8143779555968</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.9640017218607</v>
       </c>
       <c r="E6" t="n">
-        <v>121.1131972015072</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.5881485506058</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2511555524647</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.3434255221871</v>
+        <v>73.02686326066636</v>
       </c>
       <c r="I6" t="n">
-        <v>44.74084037091431</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>52.94751396440631</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>128.4917962674008</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.7924465883501</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9353056592152</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>125.771022672318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.913546486637</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>120.0629254571141</v>
+        <v>142.7038137108703</v>
       </c>
       <c r="I7" t="n">
-        <v>153.1218572910174</v>
+        <v>115.0702253392529</v>
       </c>
       <c r="J7" t="n">
-        <v>87.88467607887192</v>
+        <v>50.4131925917203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.67809613941668</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>173.8117278859823</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>222.6671542616779</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>204.3560566217363</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3148057453006</v>
+        <v>247.8345207995437</v>
       </c>
       <c r="V7" t="n">
-        <v>210.6618448975182</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>285.7613994649033</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.1621657402053</v>
+        <v>394.848707981833</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1202946442039</v>
+        <v>157.8315260226346</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>72.66688054683266</v>
       </c>
       <c r="W8" t="n">
-        <v>85.52708871590687</v>
+        <v>94.15559079411076</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>117.9949087358293</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>67.30539549566153</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>79.80231631436099</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117134</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>238.3202039920942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="H35" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1016809079490031</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U35" t="n">
-        <v>25.09492261467053</v>
+        <v>1.400589116171858</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="C37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="D37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="E37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="F37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="G37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="H37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="I37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="J37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="K37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="L37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="M37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="N37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="O37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="P37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="R37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="S37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="V37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="W37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="X37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,16 +30271,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1016809079483778</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.400589116172767</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="C40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="D40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="E40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="F40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="G40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="H40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="I40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="J40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="K40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="L40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="M40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="N40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="O40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="P40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="R40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="S40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="V40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="W40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="X40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
     </row>
     <row r="41">
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1016809079479231</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.400589116173308</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T41" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="C43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="D43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="E43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="F43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="G43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="H43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="I43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="J43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="K43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="L43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="M43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="N43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="O43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="P43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="R43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="S43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="V43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="W43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="X43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.400589116172569</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,16 +30745,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1016809079480936</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>12.22273425527945</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="C46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="D46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="E46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="F46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="G46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="H46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="I46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="J46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="K46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="L46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="M46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="N46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="O46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="P46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="R46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="S46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="T46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="U46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="V46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="W46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="X46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.09492261467053</v>
+        <v>12.22273425527945</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760122</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461253</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.908887208846</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677234</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081219</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870384</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847514</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626982</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132623</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520193</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.59355562872768</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779993</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.5917522583341</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164381</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263573</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.0631530931000621</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623708</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227323</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174391</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894689</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948824</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394056</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179691</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938417</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587928</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457198</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1726233049293539</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H5" t="n">
-        <v>1.767878421607746</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I5" t="n">
-        <v>6.655059963288923</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J5" t="n">
-        <v>14.65118722674776</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>21.95833172440732</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L5" t="n">
-        <v>27.24125219263904</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M5" t="n">
-        <v>30.31114189167644</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N5" t="n">
-        <v>30.80160785680696</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O5" t="n">
-        <v>29.0850848684157</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P5" t="n">
-        <v>24.82344702797227</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q5" t="n">
-        <v>18.64137492018978</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R5" t="n">
-        <v>10.84354867826854</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S5" t="n">
-        <v>3.933653561077656</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7556585173282471</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01380986439434831</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0923616107459275</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8920187143093525</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.179994054190925</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J6" t="n">
-        <v>8.726146741570282</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K6" t="n">
-        <v>14.91437466154742</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L6" t="n">
-        <v>20.0542172806015</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M6" t="n">
-        <v>23.40232567014136</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N6" t="n">
-        <v>24.02171559483664</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O6" t="n">
-        <v>21.9751767462032</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P6" t="n">
-        <v>17.63701670463242</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.78987859276085</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R6" t="n">
-        <v>5.734521761926974</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S6" t="n">
-        <v>1.715576410127205</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3722821064715234</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006076421759600496</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07743287182179424</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6884486240155894</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I7" t="n">
-        <v>2.328617636240868</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J7" t="n">
-        <v>5.474504037800854</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K7" t="n">
-        <v>8.996291835295731</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L7" t="n">
-        <v>11.51215623430567</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M7" t="n">
-        <v>12.13795462566544</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N7" t="n">
-        <v>11.84934119432967</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O7" t="n">
-        <v>10.94478446441143</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P7" t="n">
-        <v>9.365153879246821</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.483947112277699</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R7" t="n">
-        <v>3.48166349118722</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S7" t="n">
-        <v>1.349443775294359</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3308495432385753</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004223611190279691</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.382866242190792</v>
+        <v>4.646128713936235</v>
       </c>
       <c r="H11" t="n">
-        <v>44.88602890283646</v>
+        <v>47.58216569159948</v>
       </c>
       <c r="I11" t="n">
-        <v>168.9704508020607</v>
+        <v>179.1198772440269</v>
       </c>
       <c r="J11" t="n">
-        <v>371.9902937231411</v>
+        <v>394.3343669344459</v>
       </c>
       <c r="K11" t="n">
-        <v>557.5170217550774</v>
+        <v>591.0049953953668</v>
       </c>
       <c r="L11" t="n">
-        <v>691.6491645145239</v>
+        <v>733.1939570244931</v>
       </c>
       <c r="M11" t="n">
-        <v>769.5929620490845</v>
+        <v>815.8195485409566</v>
       </c>
       <c r="N11" t="n">
-        <v>782.0457807597091</v>
+        <v>829.0203617494279</v>
       </c>
       <c r="O11" t="n">
-        <v>738.4636545639244</v>
+        <v>782.8204193502245</v>
       </c>
       <c r="P11" t="n">
-        <v>630.2616442098391</v>
+        <v>668.1191167249235</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.3002469113812</v>
+        <v>501.7296321570819</v>
       </c>
       <c r="R11" t="n">
-        <v>275.3152215860176</v>
+        <v>291.8523828267973</v>
       </c>
       <c r="S11" t="n">
-        <v>99.87456449392276</v>
+        <v>105.8736580688221</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1859969751902</v>
+        <v>20.33842844525588</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3506292993752633</v>
+        <v>0.3716902971148988</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.345040178545764</v>
+        <v>2.485898018970696</v>
       </c>
       <c r="H12" t="n">
-        <v>22.6481511980604</v>
+        <v>24.0085413937433</v>
       </c>
       <c r="I12" t="n">
-        <v>80.73932193677301</v>
+        <v>85.58903267070161</v>
       </c>
       <c r="J12" t="n">
-        <v>219.8924142019268</v>
+        <v>234.8628474852972</v>
       </c>
       <c r="K12" t="n">
-        <v>378.6725625154359</v>
+        <v>401.4180147563339</v>
       </c>
       <c r="L12" t="n">
-        <v>509.1719913987195</v>
+        <v>539.7560588997558</v>
       </c>
       <c r="M12" t="n">
-        <v>594.1796978710033</v>
+        <v>629.8698620874434</v>
       </c>
       <c r="N12" t="n">
-        <v>609.9058664367774</v>
+        <v>417.7029345902231</v>
       </c>
       <c r="O12" t="n">
-        <v>557.9447130068949</v>
+        <v>591.4583764697516</v>
       </c>
       <c r="P12" t="n">
-        <v>447.799821462831</v>
+        <v>474.6974910085358</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.3423217385786</v>
+        <v>317.322701509312</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5981963486572</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.55809279009343</v>
+        <v>46.17446539623198</v>
       </c>
       <c r="T12" t="n">
-        <v>9.452157561769983</v>
+        <v>10.01991350628978</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542789591148529</v>
+        <v>0.1635459223007037</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.966002910687633</v>
+        <v>2.084093392378366</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47955315138642</v>
+        <v>18.52948488860039</v>
       </c>
       <c r="I13" t="n">
-        <v>59.1230693504972</v>
+        <v>62.67437219988761</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9964057856157</v>
+        <v>147.3454028411504</v>
       </c>
       <c r="K13" t="n">
-        <v>228.4137927144359</v>
+        <v>242.1337595872319</v>
       </c>
       <c r="L13" t="n">
-        <v>292.2910145580505</v>
+        <v>309.8478485359618</v>
       </c>
       <c r="M13" t="n">
-        <v>308.1798926271532</v>
+        <v>326.6911124070924</v>
       </c>
       <c r="N13" t="n">
-        <v>300.8520635964086</v>
+        <v>318.9231279445914</v>
       </c>
       <c r="O13" t="n">
-        <v>277.8855750488303</v>
+        <v>294.5771278608986</v>
       </c>
       <c r="P13" t="n">
-        <v>237.7791156708024</v>
+        <v>252.0616226563797</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.625934639489</v>
+        <v>174.5144021563376</v>
       </c>
       <c r="R13" t="n">
-        <v>88.39863996600937</v>
+        <v>93.70841744275813</v>
       </c>
       <c r="S13" t="n">
-        <v>34.26206890716538</v>
+        <v>36.32006393808478</v>
       </c>
       <c r="T13" t="n">
-        <v>8.400194254756249</v>
+        <v>8.904762676525742</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1072365224011437</v>
+        <v>0.1136778214024565</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,19 +32084,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1579551075595</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
         <v>275.9770021735818</v>
@@ -32327,13 +32327,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>189.4642825742344</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,13 +32546,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745725</v>
@@ -32564,7 +32564,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504302</v>
@@ -32801,13 +32801,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,28 +33020,28 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>486.0296793139987</v>
       </c>
       <c r="O27" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>506.1607420902315</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,13 +33257,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
         <v>634.2436048745725</v>
@@ -33272,13 +33272,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>486.0296793139987</v>
       </c>
       <c r="O30" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>344.3187317059965</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660256</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745725</v>
@@ -33515,7 +33515,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,31 +33731,31 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>486.0296793139987</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.0542121815563</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>636.218582673967</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34217,22 +34217,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>541.8219741960826</v>
+        <v>636.218582673967</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34390,7 +34390,7 @@
         <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987179</v>
+        <v>342.9428985987169</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
@@ -34442,10 +34442,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>471.6886536848224</v>
@@ -34454,13 +34454,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>616.6294811316334</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>421.3049304638554</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34702,10 +34702,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.92627338448402</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>38.48106384277808</v>
+        <v>31.71334579105918</v>
       </c>
       <c r="N2" t="n">
         <v>38.48106384277808</v>
@@ -34714,10 +34714,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424833</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M3" t="n">
-        <v>36.92627338448402</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721083</v>
       </c>
       <c r="M4" t="n">
         <v>38.48106384277808</v>
@@ -34872,7 +34872,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831905</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.80000859090339</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.47579842630984</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.979555415312426</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M6" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.82045317559094</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>39.1021814946218</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M7" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N7" t="n">
-        <v>41.47579842630984</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="O7" t="n">
-        <v>35.52991237845111</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P7" t="n">
-        <v>6.643713144140309</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>81.94118660406885</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659562</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>237.0645776790775</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649638</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.9443891964548</v>
+        <v>213.2884624077596</v>
       </c>
       <c r="K11" t="n">
-        <v>337.4271707100968</v>
+        <v>370.9151443503862</v>
       </c>
       <c r="L11" t="n">
-        <v>455.8827495445367</v>
+        <v>497.4275420545059</v>
       </c>
       <c r="M11" t="n">
-        <v>539.2467288218118</v>
+        <v>585.4733153136839</v>
       </c>
       <c r="N11" t="n">
-        <v>552.6327171631183</v>
+        <v>599.6072981528371</v>
       </c>
       <c r="O11" t="n">
-        <v>508.3654431422376</v>
+        <v>552.7222079285377</v>
       </c>
       <c r="P11" t="n">
-        <v>399.0286484545696</v>
+        <v>436.886120969654</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.9945570369317</v>
+        <v>279.4239422826324</v>
       </c>
       <c r="R11" t="n">
-        <v>59.72968377188545</v>
+        <v>76.26684501266516</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.0547875352601</v>
+        <v>108.0252208186305</v>
       </c>
       <c r="K12" t="n">
-        <v>240.8311235410769</v>
+        <v>263.5765757819749</v>
       </c>
       <c r="L12" t="n">
-        <v>370.6176116188453</v>
+        <v>401.2016791198816</v>
       </c>
       <c r="M12" t="n">
-        <v>452.045663948985</v>
+        <v>487.7358281654251</v>
       </c>
       <c r="N12" t="n">
-        <v>478.5641543534441</v>
+        <v>286.3612225068898</v>
       </c>
       <c r="O12" t="n">
-        <v>415.3484685624504</v>
+        <v>448.8621320253071</v>
       </c>
       <c r="P12" t="n">
-        <v>313.8254140485008</v>
+        <v>340.7230835942056</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.360547652557</v>
+        <v>177.3409274232905</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.63722566894288</v>
+        <v>53.98622272447767</v>
       </c>
       <c r="K13" t="n">
-        <v>206.144300888553</v>
+        <v>219.8642677613491</v>
       </c>
       <c r="L13" t="n">
-        <v>319.8810398183666</v>
+        <v>337.4378737962779</v>
       </c>
       <c r="M13" t="n">
-        <v>347.7637695889938</v>
+        <v>366.2749893689329</v>
       </c>
       <c r="N13" t="n">
-        <v>344.9842359756373</v>
+        <v>363.05530032382</v>
       </c>
       <c r="O13" t="n">
-        <v>302.47070296287</v>
+        <v>319.1622557749383</v>
       </c>
       <c r="P13" t="n">
-        <v>235.0576749356958</v>
+        <v>249.3401819212732</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.46389138779462</v>
+        <v>88.35235890464317</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>297.0239211855412</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
         <v>149.1393755069151</v>
@@ -35975,13 +35975,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>46.86803812978999</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946983</v>
@@ -36212,7 +36212,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870085</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>49.32163785977568</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284119</v>
@@ -36449,13 +36449,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P26" t="n">
         <v>553.844392613483</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>354.6879672306654</v>
       </c>
       <c r="O27" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>372.1863346759013</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N29" t="n">
         <v>744.73230092637</v>
@@ -36853,7 +36853,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
         <v>495.6892250946983</v>
@@ -36920,13 +36920,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>354.6879672306654</v>
       </c>
       <c r="O30" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>210.3443242916662</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946983</v>
@@ -37163,7 +37163,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>354.6879672306654</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.0724380955348</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>104.874844725331</v>
+        <v>92.00265636593997</v>
       </c>
       <c r="K37" t="n">
-        <v>287.3461619788762</v>
+        <v>274.4739736194852</v>
       </c>
       <c r="L37" t="n">
-        <v>416.7735267390485</v>
+        <v>403.9013383796575</v>
       </c>
       <c r="M37" t="n">
-        <v>448.5591570030133</v>
+        <v>435.6869686436222</v>
       </c>
       <c r="N37" t="n">
-        <v>443.9796355355866</v>
+        <v>431.1074471761955</v>
       </c>
       <c r="O37" t="n">
-        <v>395.8246771753065</v>
+        <v>382.9524888159154</v>
       </c>
       <c r="P37" t="n">
-        <v>318.5600083078064</v>
+        <v>305.6878199484153</v>
       </c>
       <c r="Q37" t="n">
-        <v>143.9970777191504</v>
+        <v>131.1248893597593</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>504.8768705906338</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>104.874844725331</v>
+        <v>92.00265636593997</v>
       </c>
       <c r="K40" t="n">
-        <v>287.3461619788762</v>
+        <v>274.4739736194852</v>
       </c>
       <c r="L40" t="n">
-        <v>416.7735267390485</v>
+        <v>403.9013383796574</v>
       </c>
       <c r="M40" t="n">
-        <v>448.5591570030133</v>
+        <v>435.6869686436222</v>
       </c>
       <c r="N40" t="n">
-        <v>443.9796355355866</v>
+        <v>431.1074471761955</v>
       </c>
       <c r="O40" t="n">
-        <v>395.8246771753065</v>
+        <v>382.9524888159154</v>
       </c>
       <c r="P40" t="n">
-        <v>318.5600083078064</v>
+        <v>305.6878199484153</v>
       </c>
       <c r="Q40" t="n">
-        <v>143.9970777191504</v>
+        <v>131.1248893597593</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>410.4802621127492</v>
+        <v>504.8768705906338</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>104.874844725331</v>
+        <v>92.00265636593997</v>
       </c>
       <c r="K43" t="n">
-        <v>287.3461619788762</v>
+        <v>274.4739736194852</v>
       </c>
       <c r="L43" t="n">
-        <v>416.7735267390485</v>
+        <v>403.9013383796574</v>
       </c>
       <c r="M43" t="n">
-        <v>448.5591570030133</v>
+        <v>435.6869686436222</v>
       </c>
       <c r="N43" t="n">
-        <v>443.9796355355866</v>
+        <v>431.1074471761955</v>
       </c>
       <c r="O43" t="n">
-        <v>395.8246771753065</v>
+        <v>382.9524888159154</v>
       </c>
       <c r="P43" t="n">
-        <v>318.5600083078064</v>
+        <v>305.6878199484153</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.9970777191504</v>
+        <v>131.1248893597593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845857</v>
+        <v>127.3573607845848</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>333.8472147104634</v>
@@ -38102,13 +38102,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>474.4954472096151</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>278.7086860194109</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.874844725331</v>
+        <v>92.00265636593997</v>
       </c>
       <c r="K46" t="n">
-        <v>287.3461619788762</v>
+        <v>274.4739736194852</v>
       </c>
       <c r="L46" t="n">
-        <v>416.7735267390485</v>
+        <v>403.9013383796574</v>
       </c>
       <c r="M46" t="n">
-        <v>448.5591570030133</v>
+        <v>435.6869686436222</v>
       </c>
       <c r="N46" t="n">
-        <v>443.9796355355866</v>
+        <v>431.1074471761955</v>
       </c>
       <c r="O46" t="n">
-        <v>395.8246771753065</v>
+        <v>382.9524888159154</v>
       </c>
       <c r="P46" t="n">
-        <v>318.5600083078064</v>
+        <v>305.6878199484153</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.9970777191504</v>
+        <v>131.1248893597593</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
